--- a/db_feed/OFET_template_v6_example2.xlsx
+++ b/db_feed/OFET_template_v6_example2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\ofet-db\db_feed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\ofet-db\db_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79C5DAEB-30C6-4002-896F-64A84D591B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24FD783-F2BB-47DB-AC19-02ECF5C9F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -2834,15 +2834,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="72.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="75.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="72.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -2867,14 +2867,14 @@
       <c r="D2" s="29"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="105" t="s">
         <v>257</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="D4" s="93"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="106" t="s">
         <v>139</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="106" t="s">
         <v>140</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="106" t="s">
         <v>141</v>
       </c>
@@ -2922,13 +2922,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="106"/>
       <c r="B8" s="97"/>
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="105" t="s">
         <v>142</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="C9" s="97"/>
       <c r="D9" s="97"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="106" t="s">
         <v>291</v>
       </c>
@@ -2946,13 +2946,13 @@
       <c r="C10" s="99"/>
       <c r="D10" s="99"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="106"/>
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="15.6">
       <c r="A12" s="107" t="s">
         <v>25</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="D12" s="53"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="108" t="s">
         <v>26</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="D17" s="53"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="15.6">
       <c r="A18" s="107" t="s">
         <v>143</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="D18" s="53"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="15.6">
       <c r="A19" s="105" t="s">
         <v>59</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="C19" s="71"/>
       <c r="D19" s="71"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="15.6">
       <c r="A20" s="106" t="s">
         <v>381</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="15.6">
       <c r="A21" s="106" t="s">
         <v>387</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75">
+    <row r="23" spans="1:5" ht="15.6">
       <c r="A23" s="105" t="s">
         <v>60</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75">
+    <row r="42" spans="1:5" ht="15.6">
       <c r="A42" s="9"/>
     </row>
   </sheetData>
@@ -3424,17 +3424,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="16" t="s">
         <v>66</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.6">
       <c r="A18" s="16" t="s">
         <v>35</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.6">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.6">
       <c r="A20" s="15" t="s">
         <v>326</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.6">
       <c r="A21" s="15" t="s">
         <v>65</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="15" t="s">
         <v>325</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.6">
       <c r="A23" s="15" t="s">
         <v>208</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="15" t="s">
         <v>327</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.6">
       <c r="A25" s="15" t="s">
         <v>328</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>76261</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.6">
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>6399</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.6">
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>8157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>21354</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="15.6">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>74057</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.6">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -3916,18 +3916,18 @@
         <v>21932446</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.6">
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="15.6">
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15.6">
       <c r="H41" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="15.6">
       <c r="G42" s="16"/>
     </row>
     <row r="47" spans="1:10">
@@ -4163,7 +4163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4177,12 +4177,12 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4208,7 +4208,7 @@
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="88" t="s">
         <v>279</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="105" t="s">
         <v>129</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="16.2" thickBot="1">
       <c r="A9" s="105" t="s">
         <v>273</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="73" t="s">
         <v>270</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="65" t="s">
         <v>298</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1">
+    <row r="16" spans="1:5" ht="16.2" thickBot="1">
       <c r="A16" s="113" t="s">
         <v>274</v>
       </c>
@@ -4342,7 +4342,7 @@
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" ht="15.6">
       <c r="A17" s="73"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -4366,7 +4366,7 @@
       <c r="C20" s="40"/>
       <c r="D20" s="64"/>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1">
+    <row r="21" spans="1:4" ht="16.2" thickBot="1">
       <c r="A21" s="75"/>
       <c r="B21" s="46"/>
       <c r="C21" s="76"/>
@@ -4378,7 +4378,7 @@
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:4" ht="15.6">
       <c r="A23" s="105" t="s">
         <v>131</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickBot="1">
+    <row r="24" spans="1:4" ht="16.2" thickBot="1">
       <c r="A24" s="105" t="s">
         <v>276</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4" ht="15.6">
       <c r="A25" s="73" t="s">
         <v>259</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+    <row r="40" spans="1:4" ht="15" thickBot="1">
       <c r="A40" s="92" t="s">
         <v>269</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1">
+    <row r="42" spans="1:4" ht="16.2" thickBot="1">
       <c r="A42" s="105" t="s">
         <v>277</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
+    <row r="43" spans="1:4" ht="15.6">
       <c r="A43" s="73" t="s">
         <v>259</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+    <row r="58" spans="1:4" ht="15" thickBot="1">
       <c r="A58" s="92" t="s">
         <v>269</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="26.25">
+    <row r="92" spans="1:2" ht="25.8">
       <c r="A92" s="54" t="s">
         <v>210</v>
       </c>
@@ -4778,24 +4778,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+    <row r="4" spans="1:10" ht="16.2" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>409</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="16.2" thickBot="1">
       <c r="A5" s="73" t="s">
         <v>161</v>
       </c>
@@ -4870,7 +4870,7 @@
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="61" t="s">
         <v>146</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="A12" s="75" t="s">
         <v>155</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -5044,7 +5044,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+    <row r="14" spans="1:10" ht="16.2" thickBot="1">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -5056,7 +5056,7 @@
       <c r="I14" s="53"/>
       <c r="J14" s="40"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -5176,7 +5176,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+    <row r="22" spans="1:10" ht="16.2" thickBot="1">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -5192,7 +5192,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -5204,7 +5204,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="53"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
@@ -5376,7 +5376,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1">
+    <row r="34" spans="1:10" ht="16.2" thickBot="1">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -5392,7 +5392,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" thickBot="1">
+    <row r="35" spans="1:10" ht="16.2" thickBot="1">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -5404,7 +5404,7 @@
       <c r="I35" s="40"/>
       <c r="J35" s="53"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -5506,7 +5506,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" thickBot="1">
+    <row r="42" spans="1:10" ht="16.2" thickBot="1">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -5522,7 +5522,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -5534,7 +5534,7 @@
       <c r="I43" s="85"/>
       <c r="J43" s="85"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.6">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -5670,7 +5670,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16.5" thickBot="1">
+    <row r="52" spans="1:10" ht="16.2" thickBot="1">
       <c r="G52" s="75" t="s">
         <v>155</v>
       </c>
@@ -5730,12 +5730,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
@@ -5753,15 +5753,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="86" t="s">
         <v>169</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="86" t="s">
         <v>170</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="15.6">
       <c r="A18" s="88" t="s">
         <v>132</v>
       </c>
@@ -6036,20 +6036,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>174</v>
       </c>
@@ -6085,13 +6085,13 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="G5" s="73" t="s">
         <v>175</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1">
+    <row r="6" spans="1:10" ht="16.2" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>409</v>
       </c>
@@ -6118,7 +6118,7 @@
       <c r="I6" s="40"/>
       <c r="J6" s="63"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.6">
       <c r="A7" s="73" t="s">
         <v>175</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="A12" s="61" t="s">
         <v>156</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
       <c r="A13" s="61" t="s">
         <v>157</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="40"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
+    <row r="14" spans="1:10" ht="16.2" thickBot="1">
       <c r="A14" s="125" t="s">
         <v>155</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="G15" s="61" t="s">
         <v>146</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="63"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="73" t="s">
         <v>175</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="16.2" thickBot="1">
       <c r="A20" s="61" t="s">
         <v>322</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="61" t="s">
         <v>156</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="61" t="s">
         <v>157</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+    <row r="23" spans="1:10" ht="16.2" thickBot="1">
       <c r="A23" s="125" t="s">
         <v>155</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="I24" s="40"/>
       <c r="J24" s="63"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="G25" s="61" t="s">
         <v>153</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="73" t="s">
         <v>175</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+    <row r="31" spans="1:10" ht="16.2" thickBot="1">
       <c r="A31" s="61" t="s">
         <v>156</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="A32" s="61" t="s">
         <v>157</v>
       </c>
@@ -6616,7 +6616,7 @@
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="16.2" thickBot="1">
       <c r="A33" s="125" t="s">
         <v>155</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="I34" s="40"/>
       <c r="J34" s="63"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1">
+    <row r="35" spans="1:10" ht="15" thickBot="1">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -6666,7 +6666,7 @@
       <c r="I35" s="40"/>
       <c r="J35" s="63"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.6">
       <c r="A36" s="73" t="s">
         <v>177</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" thickBot="1">
+    <row r="40" spans="1:10" ht="16.2" thickBot="1">
       <c r="A40" s="61" t="s">
         <v>179</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" thickBot="1">
+    <row r="42" spans="1:10" ht="16.2" thickBot="1">
       <c r="A42" s="125" t="s">
         <v>155</v>
       </c>
@@ -6792,13 +6792,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" s="40"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="16.5" thickBot="1">
+    <row r="44" spans="1:10" ht="16.2" thickBot="1">
       <c r="A44" s="40"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -6816,7 +6816,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.6">
       <c r="A45" s="73" t="s">
         <v>180</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" thickBot="1">
+    <row r="50" spans="1:10" ht="16.2" thickBot="1">
       <c r="A50" s="61" t="s">
         <v>322</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1">
+    <row r="52" spans="1:10" ht="15" thickBot="1">
       <c r="A52" s="61" t="s">
         <v>156</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
+    <row r="53" spans="1:10" ht="15.6">
       <c r="A53" s="61" t="s">
         <v>157</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16.5" thickBot="1">
+    <row r="54" spans="1:10" ht="16.2" thickBot="1">
       <c r="A54" s="125" t="s">
         <v>155</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="I55" s="40"/>
       <c r="J55" s="63"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1">
+    <row r="56" spans="1:10" ht="15" thickBot="1">
       <c r="G56" s="61" t="s">
         <v>183</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75">
+    <row r="57" spans="1:10" ht="15.6">
       <c r="A57" s="73" t="s">
         <v>175</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16.5" thickBot="1">
+    <row r="61" spans="1:10" ht="16.2" thickBot="1">
       <c r="A61" s="61" t="s">
         <v>322</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" thickBot="1">
+    <row r="64" spans="1:10" ht="16.2" thickBot="1">
       <c r="A64" s="125" t="s">
         <v>155</v>
       </c>
@@ -7231,19 +7231,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>84</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="27"/>
       <c r="F3" s="24" t="s">
         <v>92</v>
@@ -7280,13 +7280,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="F4" s="26" t="s">
         <v>93</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1">
+    <row r="5" spans="1:10" ht="16.2" thickBot="1">
       <c r="A5" s="9" t="s">
         <v>95</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.6">
       <c r="A6" s="80" t="s">
         <v>86</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="61" t="s">
         <v>156</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="61" t="s">
         <v>151</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="53"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="61" t="s">
         <v>319</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="65" t="s">
         <v>155</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="F27" s="65" t="s">
         <v>155</v>
       </c>
@@ -7672,13 +7672,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" thickBot="1">
+    <row r="28" spans="1:10" ht="16.2" thickBot="1">
       <c r="F28" s="84"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="53"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.6">
       <c r="F29" s="58" t="s">
         <v>89</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="15" thickBot="1">
       <c r="F32" s="65" t="s">
         <v>201</v>
       </c>
@@ -7722,13 +7722,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="15.75" thickBot="1">
+    <row r="33" spans="6:10" ht="15" thickBot="1">
       <c r="F33" s="53"/>
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
       <c r="I33" s="85"/>
     </row>
-    <row r="34" spans="6:10" ht="15.75">
+    <row r="34" spans="6:10" ht="15.6">
       <c r="F34" s="80" t="s">
         <v>205</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="15.75" thickBot="1">
+    <row r="45" spans="6:10" ht="15" thickBot="1">
       <c r="F45" s="65" t="s">
         <v>204</v>
       </c>
@@ -7902,17 +7902,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="21.6" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>186</v>
       </c>
@@ -7948,7 +7948,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="51" t="s">
         <v>233</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="73" t="s">
         <v>188</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1">
       <c r="A11" s="75" t="s">
         <v>155</v>
       </c>
@@ -8103,13 +8103,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1">
       <c r="G12" s="77"/>
       <c r="H12" s="40"/>
       <c r="I12" s="53"/>
       <c r="J12" s="40"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="15.6">
       <c r="G13" s="73" t="s">
         <v>175</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16.5" thickBot="1">
+    <row r="20" spans="7:10" ht="16.2" thickBot="1">
       <c r="G20" s="75" t="s">
         <v>155</v>
       </c>
@@ -8195,13 +8195,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1">
+    <row r="21" spans="7:10" ht="15" thickBot="1">
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
     </row>
-    <row r="22" spans="7:10" ht="15.75">
+    <row r="22" spans="7:10" ht="15.6">
       <c r="G22" s="73" t="s">
         <v>88</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="7:10" ht="16.5" thickBot="1">
+    <row r="29" spans="7:10" ht="16.2" thickBot="1">
       <c r="G29" s="75" t="s">
         <v>155</v>
       </c>
@@ -8328,18 +8328,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.44140625" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>94</v>
       </c>
@@ -8369,7 +8369,7 @@
       <c r="K1" s="130"/>
       <c r="L1" s="131"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.6">
       <c r="A2" s="49" t="s">
         <v>235</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="15.6">
       <c r="A6" s="68" t="s">
         <v>376</v>
       </c>
@@ -8675,7 +8675,7 @@
       <c r="N14" s="40"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="15.6">
       <c r="A15" s="61"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -8693,7 +8693,7 @@
       <c r="N15" s="40"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="15.6">
       <c r="A16" s="70" t="s">
         <v>231</v>
       </c>
@@ -9249,7 +9249,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75">
+    <row r="54" spans="1:14" ht="15.6">
       <c r="A54" s="50"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -9258,7 +9258,7 @@
       <c r="F54" s="7"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75">
+    <row r="55" spans="1:14" ht="15.6">
       <c r="A55" s="50"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -9325,27 +9325,27 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>236</v>
       </c>
@@ -9420,7 +9420,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.6">
       <c r="A5" s="58" t="s">
         <v>97</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15" thickBot="1">
       <c r="A12" s="65" t="s">
         <v>252</v>
       </c>
@@ -11696,7 +11696,7 @@
       <c r="N13" s="53"/>
       <c r="O13" s="53"/>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15" thickBot="1">
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
       <c r="K14" s="53"/>
@@ -11705,7 +11705,7 @@
       <c r="N14" s="53"/>
       <c r="O14" s="53"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.6">
       <c r="I15" s="58" t="s">
         <v>98</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="9:15" ht="15.75" thickBot="1">
+    <row r="21" spans="9:15" ht="15" thickBot="1">
       <c r="I21" s="65" t="s">
         <v>252</v>
       </c>
@@ -11817,7 +11817,7 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="9:15" ht="15.75" thickBot="1">
+    <row r="23" spans="9:15" ht="15" thickBot="1">
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
       <c r="K23" s="53"/>
@@ -11826,7 +11826,7 @@
       <c r="N23" s="53"/>
       <c r="O23" s="53"/>
     </row>
-    <row r="24" spans="9:15" ht="15.75">
+    <row r="24" spans="9:15" ht="15.6">
       <c r="I24" s="58" t="s">
         <v>99</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1">
+    <row r="33" spans="1:15" ht="15" thickBot="1">
       <c r="I33" s="65" t="s">
         <v>252</v>
       </c>
@@ -11983,7 +11983,7 @@
       <c r="N34" s="53"/>
       <c r="O34" s="53"/>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1">
+    <row r="35" spans="1:15" ht="15" thickBot="1">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -11999,7 +11999,7 @@
       <c r="N35" s="53"/>
       <c r="O35" s="53"/>
     </row>
-    <row r="36" spans="1:15" ht="15.75">
+    <row r="36" spans="1:15" ht="15.6">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -12208,7 +12208,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1">
+    <row r="50" spans="1:15" ht="15" thickBot="1">
       <c r="I50" s="65" t="s">
         <v>252</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1">
+    <row r="51" spans="1:15" ht="15" thickBot="1">
       <c r="I51" s="53"/>
       <c r="J51" s="53"/>
       <c r="K51" s="53"/>
@@ -12230,7 +12230,7 @@
       <c r="N51" s="53"/>
       <c r="O51" s="53"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75">
+    <row r="52" spans="1:15" ht="15.6">
       <c r="I52" s="58" t="s">
         <v>103</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1">
+    <row r="57" spans="1:15" ht="15" thickBot="1">
       <c r="I57" s="65" t="s">
         <v>252</v>
       </c>
